--- a/Code/Results/Cases/Case_2_144/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_144/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.03013915572187</v>
+        <v>1.053484357864784</v>
       </c>
       <c r="D2">
-        <v>1.047803522069502</v>
+        <v>1.060979717634703</v>
       </c>
       <c r="E2">
-        <v>1.037533903517807</v>
+        <v>1.063290606883541</v>
       </c>
       <c r="F2">
-        <v>1.04993157885776</v>
+        <v>1.072084073519835</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062192916779456</v>
+        <v>1.051056521970331</v>
       </c>
       <c r="J2">
-        <v>1.051454318126987</v>
+        <v>1.058501459241406</v>
       </c>
       <c r="K2">
-        <v>1.058634751323533</v>
+        <v>1.063705023982717</v>
       </c>
       <c r="L2">
-        <v>1.048493971237054</v>
+        <v>1.066009645420188</v>
       </c>
       <c r="M2">
-        <v>1.060736502773145</v>
+        <v>1.074779528711521</v>
       </c>
       <c r="N2">
-        <v>1.020350164846738</v>
+        <v>1.023228231140827</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.03526654486783</v>
+        <v>1.054536443800366</v>
       </c>
       <c r="D3">
-        <v>1.051949434387632</v>
+        <v>1.061850561249107</v>
       </c>
       <c r="E3">
-        <v>1.042154512739328</v>
+        <v>1.064326676754013</v>
       </c>
       <c r="F3">
-        <v>1.054697745709138</v>
+        <v>1.073132266366866</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064234893799271</v>
+        <v>1.051402066180798</v>
       </c>
       <c r="J3">
-        <v>1.054839891987762</v>
+        <v>1.05920394849926</v>
       </c>
       <c r="K3">
-        <v>1.061958112957237</v>
+        <v>1.064390256916568</v>
       </c>
       <c r="L3">
-        <v>1.052274999486527</v>
+        <v>1.066860142352056</v>
       </c>
       <c r="M3">
-        <v>1.064675512015141</v>
+        <v>1.07564382721263</v>
       </c>
       <c r="N3">
-        <v>1.021525232592136</v>
+        <v>1.023468264265792</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.038509642286421</v>
+        <v>1.055217213779193</v>
       </c>
       <c r="D4">
-        <v>1.054574464588116</v>
+        <v>1.062414068274008</v>
       </c>
       <c r="E4">
-        <v>1.045087534499111</v>
+        <v>1.064997934734623</v>
       </c>
       <c r="F4">
-        <v>1.057720204389769</v>
+        <v>1.073811126566452</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065515855998979</v>
+        <v>1.05162434818693</v>
       </c>
       <c r="J4">
-        <v>1.056977055164732</v>
+        <v>1.059657903271631</v>
       </c>
       <c r="K4">
-        <v>1.064055990752995</v>
+        <v>1.064833019907203</v>
       </c>
       <c r="L4">
-        <v>1.054670621946099</v>
+        <v>1.067410712720531</v>
       </c>
       <c r="M4">
-        <v>1.067168545968132</v>
+        <v>1.076203086955353</v>
       </c>
       <c r="N4">
-        <v>1.022266485511961</v>
+        <v>1.023623237025454</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.039855863346477</v>
+        <v>1.055503409622099</v>
       </c>
       <c r="D5">
-        <v>1.055664725971173</v>
+        <v>1.062650969274506</v>
       </c>
       <c r="E5">
-        <v>1.046307503201618</v>
+        <v>1.06528033499478</v>
       </c>
       <c r="F5">
-        <v>1.058976672055247</v>
+        <v>1.074096664876954</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066045005506342</v>
+        <v>1.051717482217203</v>
       </c>
       <c r="J5">
-        <v>1.057863148587212</v>
+        <v>1.059848601373993</v>
       </c>
       <c r="K5">
-        <v>1.064925785212731</v>
+        <v>1.065019006727405</v>
       </c>
       <c r="L5">
-        <v>1.055665991254272</v>
+        <v>1.06764223007612</v>
       </c>
       <c r="M5">
-        <v>1.068203749705277</v>
+        <v>1.076438199616165</v>
       </c>
       <c r="N5">
-        <v>1.022573685348155</v>
+        <v>1.023688304887652</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.040080912084326</v>
+        <v>1.055551463175962</v>
       </c>
       <c r="D6">
-        <v>1.055847019713605</v>
+        <v>1.062690746136819</v>
       </c>
       <c r="E6">
-        <v>1.046511589543738</v>
+        <v>1.065327763156012</v>
       </c>
       <c r="F6">
-        <v>1.059186823228284</v>
+        <v>1.074144616535498</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066133310851303</v>
+        <v>1.051733101453174</v>
       </c>
       <c r="J6">
-        <v>1.058011214673124</v>
+        <v>1.059880611946579</v>
       </c>
       <c r="K6">
-        <v>1.065071126897383</v>
+        <v>1.065050225885619</v>
       </c>
       <c r="L6">
-        <v>1.055832441687149</v>
+        <v>1.067681106224585</v>
       </c>
       <c r="M6">
-        <v>1.068376823963425</v>
+        <v>1.076477676048976</v>
       </c>
       <c r="N6">
-        <v>1.022625010352612</v>
+        <v>1.023699225214687</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.038527697156751</v>
+        <v>1.055221037941303</v>
       </c>
       <c r="D7">
-        <v>1.05458908433574</v>
+        <v>1.062417233746941</v>
       </c>
       <c r="E7">
-        <v>1.045103886470386</v>
+        <v>1.065001707382025</v>
       </c>
       <c r="F7">
-        <v>1.057737048338873</v>
+        <v>1.07381494137217</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065522962955438</v>
+        <v>1.051625593879723</v>
       </c>
       <c r="J7">
-        <v>1.056988943222452</v>
+        <v>1.059660451956956</v>
       </c>
       <c r="K7">
-        <v>1.06406766019195</v>
+        <v>1.064835505664838</v>
       </c>
       <c r="L7">
-        <v>1.054683967713953</v>
+        <v>1.067413806040989</v>
       </c>
       <c r="M7">
-        <v>1.067182428351522</v>
+        <v>1.076206228543173</v>
       </c>
       <c r="N7">
-        <v>1.02227060751957</v>
+        <v>1.023624106790508</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.031887874084899</v>
+        <v>1.053839915308801</v>
       </c>
       <c r="D8">
-        <v>1.049216900175888</v>
+        <v>1.061274020349237</v>
       </c>
       <c r="E8">
-        <v>1.039107553212749</v>
+        <v>1.063640574971841</v>
       </c>
       <c r="F8">
-        <v>1.051555426406819</v>
+        <v>1.072438188795726</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062891542983995</v>
+        <v>1.051173571042883</v>
       </c>
       <c r="J8">
-        <v>1.052609848294956</v>
+        <v>1.058738993468093</v>
       </c>
       <c r="K8">
-        <v>1.059769045979796</v>
+        <v>1.063936731642789</v>
       </c>
       <c r="L8">
-        <v>1.049782615992389</v>
+        <v>1.066297024520268</v>
       </c>
       <c r="M8">
-        <v>1.062079556134175</v>
+        <v>1.075071622067841</v>
       </c>
       <c r="N8">
-        <v>1.020751330137694</v>
+        <v>1.023309422740934</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01958229168871</v>
+        <v>1.051406194431245</v>
       </c>
       <c r="D9">
-        <v>1.039284896676105</v>
+        <v>1.059259651541094</v>
       </c>
       <c r="E9">
-        <v>1.028080747303203</v>
+        <v>1.061248626545442</v>
       </c>
       <c r="F9">
-        <v>1.040163978700138</v>
+        <v>1.07001685869461</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057931875722441</v>
+        <v>1.050367035683123</v>
       </c>
       <c r="J9">
-        <v>1.044462006901328</v>
+        <v>1.057110657301704</v>
       </c>
       <c r="K9">
-        <v>1.051771209673527</v>
+        <v>1.062348174630427</v>
       </c>
       <c r="L9">
-        <v>1.040734089576263</v>
+        <v>1.064330981669102</v>
       </c>
       <c r="M9">
-        <v>1.05263737979155</v>
+        <v>1.073072321059418</v>
       </c>
       <c r="N9">
-        <v>1.017920812413418</v>
+        <v>1.022752275977614</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.01092111426251</v>
+        <v>1.049783697461858</v>
       </c>
       <c r="D10">
-        <v>1.032314570756896</v>
+        <v>1.057916843780769</v>
       </c>
       <c r="E10">
-        <v>1.020381993665763</v>
+        <v>1.059658415795489</v>
       </c>
       <c r="F10">
-        <v>1.032193791694214</v>
+        <v>1.068405808286787</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054387570523815</v>
+        <v>1.049822619615288</v>
       </c>
       <c r="J10">
-        <v>1.038708032507443</v>
+        <v>1.056022009615714</v>
       </c>
       <c r="K10">
-        <v>1.046123898761244</v>
+        <v>1.061285921228101</v>
       </c>
       <c r="L10">
-        <v>1.034392744610445</v>
+        <v>1.063021561962574</v>
       </c>
       <c r="M10">
-        <v>1.046005128411877</v>
+        <v>1.071739484591324</v>
       </c>
       <c r="N10">
-        <v>1.015919993755824</v>
+        <v>1.022379082962389</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.007049812214716</v>
+        <v>1.049081130837304</v>
       </c>
       <c r="D11">
-        <v>1.029204742886087</v>
+        <v>1.05733542250839</v>
       </c>
       <c r="E11">
-        <v>1.016956634482221</v>
+        <v>1.058970890027158</v>
       </c>
       <c r="F11">
-        <v>1.028643504196273</v>
+        <v>1.067708960994055</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052791307575692</v>
+        <v>1.049585287095702</v>
       </c>
       <c r="J11">
-        <v>1.036132223458139</v>
+        <v>1.05554988121517</v>
       </c>
       <c r="K11">
-        <v>1.043596144974962</v>
+        <v>1.060825193280956</v>
       </c>
       <c r="L11">
-        <v>1.031565704886404</v>
+        <v>1.062454874661782</v>
       </c>
       <c r="M11">
-        <v>1.043044733567337</v>
+        <v>1.07116236187018</v>
       </c>
       <c r="N11">
-        <v>1.015023995816378</v>
+        <v>1.022217069969079</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.005592507307814</v>
+        <v>1.048820163671613</v>
       </c>
       <c r="D12">
-        <v>1.028035026866252</v>
+        <v>1.05711946053907</v>
       </c>
       <c r="E12">
-        <v>1.015669657510752</v>
+        <v>1.058715669757029</v>
       </c>
       <c r="F12">
-        <v>1.027308948605487</v>
+        <v>1.067450233475624</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052188659024688</v>
+        <v>1.049496891336809</v>
       </c>
       <c r="J12">
-        <v>1.035162053666972</v>
+        <v>1.055374401002587</v>
       </c>
       <c r="K12">
-        <v>1.042644133247056</v>
+        <v>1.060653943525799</v>
       </c>
       <c r="L12">
-        <v>1.030502685505133</v>
+        <v>1.062244427038957</v>
       </c>
       <c r="M12">
-        <v>1.041931009941821</v>
+        <v>1.070947993575655</v>
       </c>
       <c r="N12">
-        <v>1.014686485773229</v>
+        <v>1.022156828432455</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.00590599858433</v>
+        <v>1.048876142140792</v>
       </c>
       <c r="D13">
-        <v>1.028286608940426</v>
+        <v>1.057165784939231</v>
       </c>
       <c r="E13">
-        <v>1.015946395789566</v>
+        <v>1.058770408243812</v>
       </c>
       <c r="F13">
-        <v>1.027595946900352</v>
+        <v>1.067505726308455</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052318377369871</v>
+        <v>1.049515863382801</v>
       </c>
       <c r="J13">
-        <v>1.03537077718915</v>
+        <v>1.055412047113596</v>
       </c>
       <c r="K13">
-        <v>1.042848947388492</v>
+        <v>1.060690682376896</v>
       </c>
       <c r="L13">
-        <v>1.030731304317365</v>
+        <v>1.06228956671669</v>
       </c>
       <c r="M13">
-        <v>1.042170558960371</v>
+        <v>1.070993976264942</v>
       </c>
       <c r="N13">
-        <v>1.014759099500439</v>
+        <v>1.022169753282199</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.00692975232262</v>
+        <v>1.049059559266278</v>
       </c>
       <c r="D14">
-        <v>1.029108356354518</v>
+        <v>1.057317570945977</v>
       </c>
       <c r="E14">
-        <v>1.016850556563223</v>
+        <v>1.058949790227303</v>
       </c>
       <c r="F14">
-        <v>1.028533517764888</v>
+        <v>1.067687572198698</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052741693751174</v>
+        <v>1.049577985168436</v>
       </c>
       <c r="J14">
-        <v>1.036052306726584</v>
+        <v>1.055535378224429</v>
       </c>
       <c r="K14">
-        <v>1.043517722739958</v>
+        <v>1.060811040065839</v>
       </c>
       <c r="L14">
-        <v>1.031478103599168</v>
+        <v>1.062437478070978</v>
       </c>
       <c r="M14">
-        <v>1.04295296528833</v>
+        <v>1.071144642103344</v>
       </c>
       <c r="N14">
-        <v>1.014996194424651</v>
+        <v>1.022212091663319</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.007557922968255</v>
+        <v>1.049172568248357</v>
       </c>
       <c r="D15">
-        <v>1.029612703411068</v>
+        <v>1.057411091823174</v>
       </c>
       <c r="E15">
-        <v>1.017405672187185</v>
+        <v>1.059060334254335</v>
       </c>
       <c r="F15">
-        <v>1.029109060793281</v>
+        <v>1.067799628378757</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053001209301467</v>
+        <v>1.049616228662691</v>
       </c>
       <c r="J15">
-        <v>1.036470421013804</v>
+        <v>1.055611351922691</v>
       </c>
       <c r="K15">
-        <v>1.043928020454043</v>
+        <v>1.060885181189874</v>
       </c>
       <c r="L15">
-        <v>1.031936494928386</v>
+        <v>1.062528617142808</v>
       </c>
       <c r="M15">
-        <v>1.043433138349418</v>
+        <v>1.071237472406623</v>
       </c>
       <c r="N15">
-        <v>1.015141646439066</v>
+        <v>1.022238169432145</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.011175394680804</v>
+        <v>1.049830324148056</v>
       </c>
       <c r="D16">
-        <v>1.032518960627384</v>
+        <v>1.057955431310829</v>
       </c>
       <c r="E16">
-        <v>1.020607318393019</v>
+        <v>1.059704066676639</v>
       </c>
       <c r="F16">
-        <v>1.032427246386751</v>
+        <v>1.06845207152574</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054492172451045</v>
+        <v>1.049838336951063</v>
       </c>
       <c r="J16">
-        <v>1.038877143005308</v>
+        <v>1.056053327698819</v>
       </c>
       <c r="K16">
-        <v>1.04628986165028</v>
+        <v>1.061316482109467</v>
       </c>
       <c r="L16">
-        <v>1.03457859402524</v>
+        <v>1.063059177470734</v>
       </c>
       <c r="M16">
-        <v>1.046199667463745</v>
+        <v>1.071777786427363</v>
       </c>
       <c r="N16">
-        <v>1.015978813452753</v>
+        <v>1.022389826433508</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.013411367249501</v>
+        <v>1.050242912800786</v>
       </c>
       <c r="D17">
-        <v>1.034316887305092</v>
+        <v>1.058296887532929</v>
       </c>
       <c r="E17">
-        <v>1.022590475142146</v>
+        <v>1.060108143243497</v>
       </c>
       <c r="F17">
-        <v>1.034481482051899</v>
+        <v>1.068861532313258</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055410608883822</v>
+        <v>1.049977232113213</v>
       </c>
       <c r="J17">
-        <v>1.040363746283622</v>
+        <v>1.056330370163765</v>
       </c>
       <c r="K17">
-        <v>1.047748831371457</v>
+        <v>1.061586820970441</v>
       </c>
       <c r="L17">
-        <v>1.036213675414116</v>
+        <v>1.063392064418743</v>
       </c>
       <c r="M17">
-        <v>1.047910781184774</v>
+        <v>1.072116712377783</v>
       </c>
       <c r="N17">
-        <v>1.016495846513031</v>
+        <v>1.02248484503281</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.01470398495293</v>
+        <v>1.050483567388717</v>
       </c>
       <c r="D18">
-        <v>1.035356805264461</v>
+        <v>1.058496055404985</v>
       </c>
       <c r="E18">
-        <v>1.023738426225531</v>
+        <v>1.060343935172513</v>
       </c>
       <c r="F18">
-        <v>1.035670183257143</v>
+        <v>1.069100436037379</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055940412323092</v>
+        <v>1.050058093245987</v>
       </c>
       <c r="J18">
-        <v>1.041222775718419</v>
+        <v>1.056491893259642</v>
       </c>
       <c r="K18">
-        <v>1.048591920997555</v>
+        <v>1.06174443121659</v>
       </c>
       <c r="L18">
-        <v>1.03715960893574</v>
+        <v>1.063586260683363</v>
       </c>
       <c r="M18">
-        <v>1.048900354294152</v>
+        <v>1.072314402552544</v>
       </c>
       <c r="N18">
-        <v>1.016794581809489</v>
+        <v>1.02254022744116</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.015142802439702</v>
+        <v>1.050565624160909</v>
       </c>
       <c r="D19">
-        <v>1.035709924673566</v>
+        <v>1.058563966873186</v>
       </c>
       <c r="E19">
-        <v>1.024128381914097</v>
+        <v>1.060424351233915</v>
       </c>
       <c r="F19">
-        <v>1.036073915260763</v>
+        <v>1.069181908269734</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056120073894725</v>
+        <v>1.050085638670405</v>
       </c>
       <c r="J19">
-        <v>1.041514333210839</v>
+        <v>1.056546956404043</v>
       </c>
       <c r="K19">
-        <v>1.048878072893624</v>
+        <v>1.061798159710847</v>
       </c>
       <c r="L19">
-        <v>1.037480849204039</v>
+        <v>1.063652481494072</v>
       </c>
       <c r="M19">
-        <v>1.049236356044226</v>
+        <v>1.072381809857332</v>
       </c>
       <c r="N19">
-        <v>1.016895968004504</v>
+        <v>1.022559104567107</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.01317267515147</v>
+        <v>1.050198646090053</v>
       </c>
       <c r="D20">
-        <v>1.034124900904363</v>
+        <v>1.058260252278613</v>
       </c>
       <c r="E20">
-        <v>1.022378616469977</v>
+        <v>1.060064779213035</v>
       </c>
       <c r="F20">
-        <v>1.034262071061502</v>
+        <v>1.068817593579059</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055312683456459</v>
+        <v>1.049962345912435</v>
       </c>
       <c r="J20">
-        <v>1.040205088807973</v>
+        <v>1.056300653482011</v>
       </c>
       <c r="K20">
-        <v>1.047593120075013</v>
+        <v>1.061557823805811</v>
       </c>
       <c r="L20">
-        <v>1.036039056671803</v>
+        <v>1.063356345804797</v>
       </c>
       <c r="M20">
-        <v>1.047728078621504</v>
+        <v>1.072080348788179</v>
       </c>
       <c r="N20">
-        <v>1.016440669359425</v>
+        <v>1.022474654607468</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.006628825780549</v>
+        <v>1.049005547570649</v>
       </c>
       <c r="D21">
-        <v>1.028866781831329</v>
+        <v>1.05727287364366</v>
       </c>
       <c r="E21">
-        <v>1.016584715316614</v>
+        <v>1.058896962356648</v>
       </c>
       <c r="F21">
-        <v>1.028257871045618</v>
+        <v>1.067634020006755</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052617310124861</v>
+        <v>1.049559698473126</v>
       </c>
       <c r="J21">
-        <v>1.035851989357415</v>
+        <v>1.055499063342273</v>
       </c>
       <c r="K21">
-        <v>1.043321152420054</v>
+        <v>1.060775600896906</v>
       </c>
       <c r="L21">
-        <v>1.031258552953258</v>
+        <v>1.062393920612457</v>
       </c>
       <c r="M21">
-        <v>1.042722962065719</v>
+        <v>1.071100274746506</v>
       </c>
       <c r="N21">
-        <v>1.014926507592075</v>
+        <v>1.022199625795316</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.002401959207444</v>
+        <v>1.048255383697222</v>
       </c>
       <c r="D22">
-        <v>1.025475939339131</v>
+        <v>1.056652091505477</v>
       </c>
       <c r="E22">
-        <v>1.012856644561676</v>
+        <v>1.058163620420923</v>
       </c>
       <c r="F22">
-        <v>1.024390744877418</v>
+        <v>1.066890511850917</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050866088354368</v>
+        <v>1.049305150097686</v>
       </c>
       <c r="J22">
-        <v>1.033037088545088</v>
+        <v>1.054994431307603</v>
       </c>
       <c r="K22">
-        <v>1.040559061042621</v>
+        <v>1.060283121679829</v>
       </c>
       <c r="L22">
-        <v>1.028177640069597</v>
+        <v>1.06178906772364</v>
       </c>
       <c r="M22">
-        <v>1.039494022055229</v>
+        <v>1.070484067883747</v>
       </c>
       <c r="N22">
-        <v>1.013947185287271</v>
+        <v>1.022026341565875</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.004653776375444</v>
+        <v>1.048653061369095</v>
       </c>
       <c r="D23">
-        <v>1.02728182395847</v>
+        <v>1.056981177686813</v>
       </c>
       <c r="E23">
-        <v>1.0148413487228</v>
+        <v>1.058552292426874</v>
       </c>
       <c r="F23">
-        <v>1.026449835326154</v>
+        <v>1.067284597771107</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051799972594808</v>
+        <v>1.049440222567919</v>
       </c>
       <c r="J23">
-        <v>1.034536969164847</v>
+        <v>1.055262007012668</v>
       </c>
       <c r="K23">
-        <v>1.04203076605527</v>
+        <v>1.060544257201856</v>
       </c>
       <c r="L23">
-        <v>1.029818280271205</v>
+        <v>1.062109686782972</v>
       </c>
       <c r="M23">
-        <v>1.041213800591781</v>
+        <v>1.070810730318899</v>
       </c>
       <c r="N23">
-        <v>1.014469018189348</v>
+        <v>1.022118237162184</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.013280565559066</v>
+        <v>1.050218648315282</v>
       </c>
       <c r="D24">
-        <v>1.034211678374554</v>
+        <v>1.058276806166113</v>
       </c>
       <c r="E24">
-        <v>1.022474373387464</v>
+        <v>1.060084373239966</v>
       </c>
       <c r="F24">
-        <v>1.034361242732813</v>
+        <v>1.068837447378619</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055356949954966</v>
+        <v>1.049969072821757</v>
       </c>
       <c r="J24">
-        <v>1.040276804210961</v>
+        <v>1.056314081390887</v>
       </c>
       <c r="K24">
-        <v>1.047663503677236</v>
+        <v>1.061570926604388</v>
       </c>
       <c r="L24">
-        <v>1.036117983359542</v>
+        <v>1.063372485419452</v>
       </c>
       <c r="M24">
-        <v>1.047810660225872</v>
+        <v>1.07209677992773</v>
       </c>
       <c r="N24">
-        <v>1.016465610302692</v>
+        <v>1.022479259346638</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.022840280825873</v>
+        <v>1.052035371622193</v>
       </c>
       <c r="D25">
-        <v>1.041911271620445</v>
+        <v>1.059780397492411</v>
       </c>
       <c r="E25">
-        <v>1.030989753386366</v>
+        <v>1.061866224977973</v>
       </c>
       <c r="F25">
-        <v>1.043172036833542</v>
+        <v>1.070642273396276</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059254370656544</v>
+        <v>1.050576730366728</v>
       </c>
       <c r="J25">
-        <v>1.046622691366778</v>
+        <v>1.057532166518545</v>
       </c>
       <c r="K25">
-        <v>1.053892031066197</v>
+        <v>1.062759422415975</v>
       </c>
       <c r="L25">
-        <v>1.043125313247014</v>
+        <v>1.064839027449322</v>
       </c>
       <c r="M25">
-        <v>1.05513518973807</v>
+        <v>1.073589184103798</v>
       </c>
       <c r="N25">
-        <v>1.018671795901314</v>
+        <v>1.022896622938767</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_144/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_144/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053484357864784</v>
+        <v>1.03013915572187</v>
       </c>
       <c r="D2">
-        <v>1.060979717634703</v>
+        <v>1.047803522069501</v>
       </c>
       <c r="E2">
-        <v>1.063290606883541</v>
+        <v>1.037533903517807</v>
       </c>
       <c r="F2">
-        <v>1.072084073519835</v>
+        <v>1.049931578857759</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051056521970331</v>
+        <v>1.062192916779455</v>
       </c>
       <c r="J2">
-        <v>1.058501459241406</v>
+        <v>1.051454318126986</v>
       </c>
       <c r="K2">
-        <v>1.063705023982717</v>
+        <v>1.058634751323532</v>
       </c>
       <c r="L2">
-        <v>1.066009645420188</v>
+        <v>1.048493971237054</v>
       </c>
       <c r="M2">
-        <v>1.074779528711521</v>
+        <v>1.060736502773144</v>
       </c>
       <c r="N2">
-        <v>1.023228231140827</v>
+        <v>1.020350164846738</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054536443800366</v>
+        <v>1.03526654486783</v>
       </c>
       <c r="D3">
-        <v>1.061850561249107</v>
+        <v>1.051949434387632</v>
       </c>
       <c r="E3">
-        <v>1.064326676754013</v>
+        <v>1.042154512739328</v>
       </c>
       <c r="F3">
-        <v>1.073132266366866</v>
+        <v>1.054697745709138</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051402066180798</v>
+        <v>1.064234893799271</v>
       </c>
       <c r="J3">
-        <v>1.05920394849926</v>
+        <v>1.054839891987762</v>
       </c>
       <c r="K3">
-        <v>1.064390256916568</v>
+        <v>1.061958112957236</v>
       </c>
       <c r="L3">
-        <v>1.066860142352056</v>
+        <v>1.052274999486527</v>
       </c>
       <c r="M3">
-        <v>1.07564382721263</v>
+        <v>1.064675512015141</v>
       </c>
       <c r="N3">
-        <v>1.023468264265792</v>
+        <v>1.021525232592136</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.055217213779193</v>
+        <v>1.038509642286421</v>
       </c>
       <c r="D4">
-        <v>1.062414068274008</v>
+        <v>1.054574464588116</v>
       </c>
       <c r="E4">
-        <v>1.064997934734623</v>
+        <v>1.045087534499111</v>
       </c>
       <c r="F4">
-        <v>1.073811126566452</v>
+        <v>1.057720204389769</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05162434818693</v>
+        <v>1.065515855998979</v>
       </c>
       <c r="J4">
-        <v>1.059657903271631</v>
+        <v>1.056977055164732</v>
       </c>
       <c r="K4">
-        <v>1.064833019907203</v>
+        <v>1.064055990752995</v>
       </c>
       <c r="L4">
-        <v>1.067410712720531</v>
+        <v>1.054670621946099</v>
       </c>
       <c r="M4">
-        <v>1.076203086955353</v>
+        <v>1.067168545968132</v>
       </c>
       <c r="N4">
-        <v>1.023623237025454</v>
+        <v>1.02226648551196</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.055503409622099</v>
+        <v>1.039855863346476</v>
       </c>
       <c r="D5">
-        <v>1.062650969274506</v>
+        <v>1.055664725971173</v>
       </c>
       <c r="E5">
-        <v>1.06528033499478</v>
+        <v>1.046307503201618</v>
       </c>
       <c r="F5">
-        <v>1.074096664876954</v>
+        <v>1.058976672055246</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051717482217203</v>
+        <v>1.066045005506342</v>
       </c>
       <c r="J5">
-        <v>1.059848601373993</v>
+        <v>1.057863148587211</v>
       </c>
       <c r="K5">
-        <v>1.065019006727405</v>
+        <v>1.06492578521273</v>
       </c>
       <c r="L5">
-        <v>1.06764223007612</v>
+        <v>1.055665991254272</v>
       </c>
       <c r="M5">
-        <v>1.076438199616165</v>
+        <v>1.068203749705277</v>
       </c>
       <c r="N5">
-        <v>1.023688304887652</v>
+        <v>1.022573685348155</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.055551463175962</v>
+        <v>1.040080912084325</v>
       </c>
       <c r="D6">
-        <v>1.062690746136819</v>
+        <v>1.055847019713605</v>
       </c>
       <c r="E6">
-        <v>1.065327763156012</v>
+        <v>1.046511589543738</v>
       </c>
       <c r="F6">
-        <v>1.074144616535498</v>
+        <v>1.059186823228284</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051733101453174</v>
+        <v>1.066133310851302</v>
       </c>
       <c r="J6">
-        <v>1.059880611946579</v>
+        <v>1.058011214673124</v>
       </c>
       <c r="K6">
-        <v>1.065050225885619</v>
+        <v>1.065071126897382</v>
       </c>
       <c r="L6">
-        <v>1.067681106224585</v>
+        <v>1.055832441687149</v>
       </c>
       <c r="M6">
-        <v>1.076477676048976</v>
+        <v>1.068376823963424</v>
       </c>
       <c r="N6">
-        <v>1.023699225214687</v>
+        <v>1.022625010352612</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.055221037941303</v>
+        <v>1.03852769715675</v>
       </c>
       <c r="D7">
-        <v>1.062417233746941</v>
+        <v>1.054589084335739</v>
       </c>
       <c r="E7">
-        <v>1.065001707382025</v>
+        <v>1.045103886470386</v>
       </c>
       <c r="F7">
-        <v>1.07381494137217</v>
+        <v>1.057737048338873</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051625593879723</v>
+        <v>1.065522962955438</v>
       </c>
       <c r="J7">
-        <v>1.059660451956956</v>
+        <v>1.056988943222452</v>
       </c>
       <c r="K7">
-        <v>1.064835505664838</v>
+        <v>1.06406766019195</v>
       </c>
       <c r="L7">
-        <v>1.067413806040989</v>
+        <v>1.054683967713953</v>
       </c>
       <c r="M7">
-        <v>1.076206228543173</v>
+        <v>1.067182428351522</v>
       </c>
       <c r="N7">
-        <v>1.023624106790508</v>
+        <v>1.02227060751957</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053839915308801</v>
+        <v>1.0318878740849</v>
       </c>
       <c r="D8">
-        <v>1.061274020349237</v>
+        <v>1.049216900175889</v>
       </c>
       <c r="E8">
-        <v>1.063640574971841</v>
+        <v>1.039107553212749</v>
       </c>
       <c r="F8">
-        <v>1.072438188795726</v>
+        <v>1.051555426406819</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051173571042883</v>
+        <v>1.062891542983995</v>
       </c>
       <c r="J8">
-        <v>1.058738993468093</v>
+        <v>1.052609848294957</v>
       </c>
       <c r="K8">
-        <v>1.063936731642789</v>
+        <v>1.059769045979797</v>
       </c>
       <c r="L8">
-        <v>1.066297024520268</v>
+        <v>1.049782615992389</v>
       </c>
       <c r="M8">
-        <v>1.075071622067841</v>
+        <v>1.062079556134175</v>
       </c>
       <c r="N8">
-        <v>1.023309422740934</v>
+        <v>1.020751330137695</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.051406194431245</v>
+        <v>1.019582291688709</v>
       </c>
       <c r="D9">
-        <v>1.059259651541094</v>
+        <v>1.039284896676104</v>
       </c>
       <c r="E9">
-        <v>1.061248626545442</v>
+        <v>1.028080747303201</v>
       </c>
       <c r="F9">
-        <v>1.07001685869461</v>
+        <v>1.040163978700136</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050367035683123</v>
+        <v>1.057931875722441</v>
       </c>
       <c r="J9">
-        <v>1.057110657301704</v>
+        <v>1.044462006901327</v>
       </c>
       <c r="K9">
-        <v>1.062348174630427</v>
+        <v>1.051771209673527</v>
       </c>
       <c r="L9">
-        <v>1.064330981669102</v>
+        <v>1.040734089576261</v>
       </c>
       <c r="M9">
-        <v>1.073072321059418</v>
+        <v>1.052637379791549</v>
       </c>
       <c r="N9">
-        <v>1.022752275977614</v>
+        <v>1.017920812413417</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.049783697461858</v>
+        <v>1.01092111426251</v>
       </c>
       <c r="D10">
-        <v>1.057916843780769</v>
+        <v>1.032314570756896</v>
       </c>
       <c r="E10">
-        <v>1.059658415795489</v>
+        <v>1.020381993665764</v>
       </c>
       <c r="F10">
-        <v>1.068405808286787</v>
+        <v>1.032193791694214</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049822619615288</v>
+        <v>1.054387570523815</v>
       </c>
       <c r="J10">
-        <v>1.056022009615714</v>
+        <v>1.038708032507442</v>
       </c>
       <c r="K10">
-        <v>1.061285921228101</v>
+        <v>1.046123898761244</v>
       </c>
       <c r="L10">
-        <v>1.063021561962574</v>
+        <v>1.034392744610446</v>
       </c>
       <c r="M10">
-        <v>1.071739484591324</v>
+        <v>1.046005128411878</v>
       </c>
       <c r="N10">
-        <v>1.022379082962389</v>
+        <v>1.015919993755824</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049081130837304</v>
+        <v>1.007049812214715</v>
       </c>
       <c r="D11">
-        <v>1.05733542250839</v>
+        <v>1.029204742886086</v>
       </c>
       <c r="E11">
-        <v>1.058970890027158</v>
+        <v>1.016956634482221</v>
       </c>
       <c r="F11">
-        <v>1.067708960994055</v>
+        <v>1.028643504196272</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049585287095702</v>
+        <v>1.052791307575692</v>
       </c>
       <c r="J11">
-        <v>1.05554988121517</v>
+        <v>1.036132223458139</v>
       </c>
       <c r="K11">
-        <v>1.060825193280956</v>
+        <v>1.043596144974962</v>
       </c>
       <c r="L11">
-        <v>1.062454874661782</v>
+        <v>1.031565704886404</v>
       </c>
       <c r="M11">
-        <v>1.07116236187018</v>
+        <v>1.043044733567337</v>
       </c>
       <c r="N11">
-        <v>1.022217069969079</v>
+        <v>1.015023995816378</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.048820163671613</v>
+        <v>1.005592507307815</v>
       </c>
       <c r="D12">
-        <v>1.05711946053907</v>
+        <v>1.028035026866253</v>
       </c>
       <c r="E12">
-        <v>1.058715669757029</v>
+        <v>1.015669657510753</v>
       </c>
       <c r="F12">
-        <v>1.067450233475624</v>
+        <v>1.027308948605488</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049496891336809</v>
+        <v>1.052188659024689</v>
       </c>
       <c r="J12">
-        <v>1.055374401002587</v>
+        <v>1.035162053666973</v>
       </c>
       <c r="K12">
-        <v>1.060653943525799</v>
+        <v>1.042644133247057</v>
       </c>
       <c r="L12">
-        <v>1.062244427038957</v>
+        <v>1.030502685505134</v>
       </c>
       <c r="M12">
-        <v>1.070947993575655</v>
+        <v>1.041931009941822</v>
       </c>
       <c r="N12">
-        <v>1.022156828432455</v>
+        <v>1.014686485773229</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.048876142140792</v>
+        <v>1.005905998584329</v>
       </c>
       <c r="D13">
-        <v>1.057165784939231</v>
+        <v>1.028286608940424</v>
       </c>
       <c r="E13">
-        <v>1.058770408243812</v>
+        <v>1.015946395789564</v>
       </c>
       <c r="F13">
-        <v>1.067505726308455</v>
+        <v>1.027595946900351</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049515863382801</v>
+        <v>1.052318377369869</v>
       </c>
       <c r="J13">
-        <v>1.055412047113596</v>
+        <v>1.035370777189148</v>
       </c>
       <c r="K13">
-        <v>1.060690682376896</v>
+        <v>1.04284894738849</v>
       </c>
       <c r="L13">
-        <v>1.06228956671669</v>
+        <v>1.030731304317364</v>
       </c>
       <c r="M13">
-        <v>1.070993976264942</v>
+        <v>1.042170558960369</v>
       </c>
       <c r="N13">
-        <v>1.022169753282199</v>
+        <v>1.014759099500438</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049059559266278</v>
+        <v>1.00692975232262</v>
       </c>
       <c r="D14">
-        <v>1.057317570945977</v>
+        <v>1.029108356354518</v>
       </c>
       <c r="E14">
-        <v>1.058949790227303</v>
+        <v>1.016850556563223</v>
       </c>
       <c r="F14">
-        <v>1.067687572198698</v>
+        <v>1.028533517764889</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049577985168436</v>
+        <v>1.052741693751174</v>
       </c>
       <c r="J14">
-        <v>1.055535378224429</v>
+        <v>1.036052306726584</v>
       </c>
       <c r="K14">
-        <v>1.060811040065839</v>
+        <v>1.043517722739958</v>
       </c>
       <c r="L14">
-        <v>1.062437478070978</v>
+        <v>1.031478103599169</v>
       </c>
       <c r="M14">
-        <v>1.071144642103344</v>
+        <v>1.04295296528833</v>
       </c>
       <c r="N14">
-        <v>1.022212091663319</v>
+        <v>1.014996194424651</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.049172568248357</v>
+        <v>1.007557922968255</v>
       </c>
       <c r="D15">
-        <v>1.057411091823174</v>
+        <v>1.029612703411067</v>
       </c>
       <c r="E15">
-        <v>1.059060334254335</v>
+        <v>1.017405672187185</v>
       </c>
       <c r="F15">
-        <v>1.067799628378757</v>
+        <v>1.029109060793281</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049616228662691</v>
+        <v>1.053001209301467</v>
       </c>
       <c r="J15">
-        <v>1.055611351922691</v>
+        <v>1.036470421013803</v>
       </c>
       <c r="K15">
-        <v>1.060885181189874</v>
+        <v>1.043928020454043</v>
       </c>
       <c r="L15">
-        <v>1.062528617142808</v>
+        <v>1.031936494928386</v>
       </c>
       <c r="M15">
-        <v>1.071237472406623</v>
+        <v>1.043433138349418</v>
       </c>
       <c r="N15">
-        <v>1.022238169432145</v>
+        <v>1.015141646439066</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.049830324148056</v>
+        <v>1.011175394680804</v>
       </c>
       <c r="D16">
-        <v>1.057955431310829</v>
+        <v>1.032518960627383</v>
       </c>
       <c r="E16">
-        <v>1.059704066676639</v>
+        <v>1.020607318393018</v>
       </c>
       <c r="F16">
-        <v>1.06845207152574</v>
+        <v>1.03242724638675</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049838336951063</v>
+        <v>1.054492172451045</v>
       </c>
       <c r="J16">
-        <v>1.056053327698819</v>
+        <v>1.038877143005307</v>
       </c>
       <c r="K16">
-        <v>1.061316482109467</v>
+        <v>1.046289861650279</v>
       </c>
       <c r="L16">
-        <v>1.063059177470734</v>
+        <v>1.034578594025239</v>
       </c>
       <c r="M16">
-        <v>1.071777786427363</v>
+        <v>1.046199667463744</v>
       </c>
       <c r="N16">
-        <v>1.022389826433508</v>
+        <v>1.015978813452753</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.050242912800786</v>
+        <v>1.013411367249502</v>
       </c>
       <c r="D17">
-        <v>1.058296887532929</v>
+        <v>1.034316887305093</v>
       </c>
       <c r="E17">
-        <v>1.060108143243497</v>
+        <v>1.022590475142147</v>
       </c>
       <c r="F17">
-        <v>1.068861532313258</v>
+        <v>1.0344814820519</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049977232113213</v>
+        <v>1.055410608883823</v>
       </c>
       <c r="J17">
-        <v>1.056330370163765</v>
+        <v>1.040363746283623</v>
       </c>
       <c r="K17">
-        <v>1.061586820970441</v>
+        <v>1.047748831371458</v>
       </c>
       <c r="L17">
-        <v>1.063392064418743</v>
+        <v>1.036213675414117</v>
       </c>
       <c r="M17">
-        <v>1.072116712377783</v>
+        <v>1.047910781184775</v>
       </c>
       <c r="N17">
-        <v>1.02248484503281</v>
+        <v>1.016495846513031</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.050483567388717</v>
+        <v>1.01470398495293</v>
       </c>
       <c r="D18">
-        <v>1.058496055404985</v>
+        <v>1.035356805264461</v>
       </c>
       <c r="E18">
-        <v>1.060343935172513</v>
+        <v>1.023738426225531</v>
       </c>
       <c r="F18">
-        <v>1.069100436037379</v>
+        <v>1.035670183257143</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050058093245987</v>
+        <v>1.055940412323092</v>
       </c>
       <c r="J18">
-        <v>1.056491893259642</v>
+        <v>1.041222775718419</v>
       </c>
       <c r="K18">
-        <v>1.06174443121659</v>
+        <v>1.048591920997555</v>
       </c>
       <c r="L18">
-        <v>1.063586260683363</v>
+        <v>1.037159608935739</v>
       </c>
       <c r="M18">
-        <v>1.072314402552544</v>
+        <v>1.048900354294152</v>
       </c>
       <c r="N18">
-        <v>1.02254022744116</v>
+        <v>1.01679458180949</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.050565624160909</v>
+        <v>1.015142802439702</v>
       </c>
       <c r="D19">
-        <v>1.058563966873186</v>
+        <v>1.035709924673566</v>
       </c>
       <c r="E19">
-        <v>1.060424351233915</v>
+        <v>1.024128381914097</v>
       </c>
       <c r="F19">
-        <v>1.069181908269734</v>
+        <v>1.036073915260762</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050085638670405</v>
+        <v>1.056120073894726</v>
       </c>
       <c r="J19">
-        <v>1.056546956404043</v>
+        <v>1.041514333210839</v>
       </c>
       <c r="K19">
-        <v>1.061798159710847</v>
+        <v>1.048878072893624</v>
       </c>
       <c r="L19">
-        <v>1.063652481494072</v>
+        <v>1.037480849204038</v>
       </c>
       <c r="M19">
-        <v>1.072381809857332</v>
+        <v>1.049236356044225</v>
       </c>
       <c r="N19">
-        <v>1.022559104567107</v>
+        <v>1.016895968004504</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.050198646090053</v>
+        <v>1.013172675151471</v>
       </c>
       <c r="D20">
-        <v>1.058260252278613</v>
+        <v>1.034124900904364</v>
       </c>
       <c r="E20">
-        <v>1.060064779213035</v>
+        <v>1.022378616469977</v>
       </c>
       <c r="F20">
-        <v>1.068817593579059</v>
+        <v>1.034262071061502</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049962345912435</v>
+        <v>1.055312683456459</v>
       </c>
       <c r="J20">
-        <v>1.056300653482011</v>
+        <v>1.040205088807974</v>
       </c>
       <c r="K20">
-        <v>1.061557823805811</v>
+        <v>1.047593120075013</v>
       </c>
       <c r="L20">
-        <v>1.063356345804797</v>
+        <v>1.036039056671803</v>
       </c>
       <c r="M20">
-        <v>1.072080348788179</v>
+        <v>1.047728078621504</v>
       </c>
       <c r="N20">
-        <v>1.022474654607468</v>
+        <v>1.016440669359425</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049005547570649</v>
+        <v>1.00662882578055</v>
       </c>
       <c r="D21">
-        <v>1.05727287364366</v>
+        <v>1.02886678183133</v>
       </c>
       <c r="E21">
-        <v>1.058896962356648</v>
+        <v>1.016584715316615</v>
       </c>
       <c r="F21">
-        <v>1.067634020006755</v>
+        <v>1.028257871045619</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049559698473126</v>
+        <v>1.052617310124862</v>
       </c>
       <c r="J21">
-        <v>1.055499063342273</v>
+        <v>1.035851989357416</v>
       </c>
       <c r="K21">
-        <v>1.060775600896906</v>
+        <v>1.043321152420055</v>
       </c>
       <c r="L21">
-        <v>1.062393920612457</v>
+        <v>1.031258552953259</v>
       </c>
       <c r="M21">
-        <v>1.071100274746506</v>
+        <v>1.04272296206572</v>
       </c>
       <c r="N21">
-        <v>1.022199625795316</v>
+        <v>1.014926507592075</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.048255383697222</v>
+        <v>1.002401959207443</v>
       </c>
       <c r="D22">
-        <v>1.056652091505477</v>
+        <v>1.025475939339129</v>
       </c>
       <c r="E22">
-        <v>1.058163620420923</v>
+        <v>1.012856644561674</v>
       </c>
       <c r="F22">
-        <v>1.066890511850917</v>
+        <v>1.024390744877416</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049305150097686</v>
+        <v>1.050866088354367</v>
       </c>
       <c r="J22">
-        <v>1.054994431307603</v>
+        <v>1.033037088545086</v>
       </c>
       <c r="K22">
-        <v>1.060283121679829</v>
+        <v>1.040559061042619</v>
       </c>
       <c r="L22">
-        <v>1.06178906772364</v>
+        <v>1.028177640069596</v>
       </c>
       <c r="M22">
-        <v>1.070484067883747</v>
+        <v>1.039494022055228</v>
       </c>
       <c r="N22">
-        <v>1.022026341565875</v>
+        <v>1.01394718528727</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.048653061369095</v>
+        <v>1.004653776375446</v>
       </c>
       <c r="D23">
-        <v>1.056981177686813</v>
+        <v>1.027281823958472</v>
       </c>
       <c r="E23">
-        <v>1.058552292426874</v>
+        <v>1.014841348722802</v>
       </c>
       <c r="F23">
-        <v>1.067284597771107</v>
+        <v>1.026449835326157</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049440222567919</v>
+        <v>1.051799972594809</v>
       </c>
       <c r="J23">
-        <v>1.055262007012668</v>
+        <v>1.034536969164849</v>
       </c>
       <c r="K23">
-        <v>1.060544257201856</v>
+        <v>1.042030766055271</v>
       </c>
       <c r="L23">
-        <v>1.062109686782972</v>
+        <v>1.029818280271207</v>
       </c>
       <c r="M23">
-        <v>1.070810730318899</v>
+        <v>1.041213800591783</v>
       </c>
       <c r="N23">
-        <v>1.022118237162184</v>
+        <v>1.014469018189349</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.050218648315282</v>
+        <v>1.013280565559066</v>
       </c>
       <c r="D24">
-        <v>1.058276806166113</v>
+        <v>1.034211678374554</v>
       </c>
       <c r="E24">
-        <v>1.060084373239966</v>
+        <v>1.022474373387464</v>
       </c>
       <c r="F24">
-        <v>1.068837447378619</v>
+        <v>1.034361242732813</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049969072821757</v>
+        <v>1.055356949954966</v>
       </c>
       <c r="J24">
-        <v>1.056314081390887</v>
+        <v>1.040276804210961</v>
       </c>
       <c r="K24">
-        <v>1.061570926604388</v>
+        <v>1.047663503677237</v>
       </c>
       <c r="L24">
-        <v>1.063372485419452</v>
+        <v>1.036117983359543</v>
       </c>
       <c r="M24">
-        <v>1.07209677992773</v>
+        <v>1.047810660225872</v>
       </c>
       <c r="N24">
-        <v>1.022479259346638</v>
+        <v>1.016465610302692</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.052035371622193</v>
+        <v>1.022840280825873</v>
       </c>
       <c r="D25">
-        <v>1.059780397492411</v>
+        <v>1.041911271620444</v>
       </c>
       <c r="E25">
-        <v>1.061866224977973</v>
+        <v>1.030989753386366</v>
       </c>
       <c r="F25">
-        <v>1.070642273396276</v>
+        <v>1.043172036833542</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050576730366728</v>
+        <v>1.059254370656544</v>
       </c>
       <c r="J25">
-        <v>1.057532166518545</v>
+        <v>1.046622691366778</v>
       </c>
       <c r="K25">
-        <v>1.062759422415975</v>
+        <v>1.053892031066196</v>
       </c>
       <c r="L25">
-        <v>1.064839027449322</v>
+        <v>1.043125313247014</v>
       </c>
       <c r="M25">
-        <v>1.073589184103798</v>
+        <v>1.05513518973807</v>
       </c>
       <c r="N25">
-        <v>1.022896622938767</v>
+        <v>1.018671795901314</v>
       </c>
     </row>
   </sheetData>
